--- a/data/trans_dic/P38A-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P38A-Dificultad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.8085522200753236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.706358775185104</v>
+        <v>0.7063587751851043</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.8737011881101343</v>
@@ -655,7 +655,7 @@
         <v>0.9023484482034599</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8664700835904282</v>
+        <v>0.8664700835904281</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8508072142576087</v>
@@ -664,7 +664,7 @@
         <v>0.8581933145499772</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.795319399194414</v>
+        <v>0.7953193991944141</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8015421972565826</v>
+        <v>0.7980235376782384</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7845606617000688</v>
+        <v>0.7832678993608164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6531942878803141</v>
+        <v>0.6543132302191782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8516110547928688</v>
+        <v>0.853198293700651</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8851519311231885</v>
+        <v>0.8862862009782708</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8346378511543142</v>
+        <v>0.8344788777123016</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8330746875960521</v>
+        <v>0.8342817668947783</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8417762381412026</v>
+        <v>0.84340146509933</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7683672721324029</v>
+        <v>0.7668344126049242</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8526377701005081</v>
+        <v>0.8464738908201807</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8305379436119908</v>
+        <v>0.8299198211568091</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7514060534504892</v>
+        <v>0.7535424832989136</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8928946577756688</v>
+        <v>0.8933526493172123</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9175720918204009</v>
+        <v>0.9180250680321995</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8926216028565537</v>
+        <v>0.8914926388706035</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8648454808735092</v>
+        <v>0.8662893425856998</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8723606849099539</v>
+        <v>0.8717384150250781</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8220128595107803</v>
+        <v>0.8236540140167335</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.8675118318268377</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.8642217129151908</v>
+        <v>0.8642217129151907</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8168422124428613</v>
+        <v>0.8201703449154084</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8127358660177888</v>
+        <v>0.8152059644777241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8137364806221662</v>
+        <v>0.8089360810137394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8810904058413538</v>
+        <v>0.8793726840642412</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8718680200895438</v>
+        <v>0.874318872256837</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8625304943013118</v>
+        <v>0.8604001453471523</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8585904765925729</v>
+        <v>0.8571523257410313</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8510633820720918</v>
+        <v>0.8511506064964888</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8449259681567329</v>
+        <v>0.8440686052717044</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8657575536065538</v>
+        <v>0.8693190566299384</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8629035234448066</v>
+        <v>0.8627009895452866</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8692432472201218</v>
+        <v>0.8676910451967004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9172738149926656</v>
+        <v>0.9173099989680249</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9113942369778587</v>
+        <v>0.9134444443277585</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9043428723539068</v>
+        <v>0.9025319087083918</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.88720631423718</v>
+        <v>0.8879540328021542</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8822015207598914</v>
+        <v>0.8817165667507538</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8811415670864517</v>
+        <v>0.8820204833426469</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.874159110513489</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8605400748337205</v>
+        <v>0.8605400748337204</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9118263657251147</v>
@@ -873,7 +873,7 @@
         <v>0.9200818410616914</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.8850112251164872</v>
+        <v>0.8850112251164873</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.8978054974482084</v>
@@ -882,7 +882,7 @@
         <v>0.8964083041507427</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8727824414214207</v>
+        <v>0.8727824414214208</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8590929521294286</v>
+        <v>0.861829466996205</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8513684870187201</v>
+        <v>0.847255003666934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8320827614606688</v>
+        <v>0.8337181294840099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8916266234478246</v>
+        <v>0.8909837431686107</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8978722779153657</v>
+        <v>0.8993947822996852</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8647078412534873</v>
+        <v>0.8621924031916226</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8816618468405548</v>
+        <v>0.8819884652008222</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.879606190154532</v>
+        <v>0.881124829135527</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8558258706751162</v>
+        <v>0.8563077514430194</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.902976962222131</v>
+        <v>0.9023571965841285</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8958623153161974</v>
+        <v>0.8956715650401081</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8842940099916857</v>
+        <v>0.8859664981078279</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9300157903719699</v>
+        <v>0.9311213047883505</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9377652147485863</v>
+        <v>0.9365555118150982</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9035531871821886</v>
+        <v>0.9033326279976184</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9110274738060815</v>
+        <v>0.9114866442555684</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9110958354244701</v>
+        <v>0.9111916253429942</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8883646902043342</v>
+        <v>0.8886399612064751</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.8260941394342255</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8496470835851051</v>
+        <v>0.849647083585105</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.9134542555494518</v>
@@ -982,7 +982,7 @@
         <v>0.8684698128672649</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.8974322727001778</v>
+        <v>0.8974322727001779</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.8940503460639581</v>
@@ -991,7 +991,7 @@
         <v>0.8469156201748425</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.8726814722767195</v>
+        <v>0.8726814722767194</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8450980724778451</v>
+        <v>0.8471920870352607</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7893563294714767</v>
+        <v>0.7876510865692909</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8198773076978423</v>
+        <v>0.8196042334215909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8835909452174119</v>
+        <v>0.8848571781531143</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8355242616117691</v>
+        <v>0.8316261337787185</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8756099143407715</v>
+        <v>0.8729846267741048</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8709760508910338</v>
+        <v>0.8738354166353982</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8238558739015374</v>
+        <v>0.8229432050032243</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8518869001140289</v>
+        <v>0.853569134923207</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9024566257295631</v>
+        <v>0.9050366808110837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8606717237689927</v>
+        <v>0.8579356566466154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8756972828654479</v>
+        <v>0.8757591896559885</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9372168169808418</v>
+        <v>0.9394096129256504</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8976662795185752</v>
+        <v>0.8949546742801224</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9160924262981811</v>
+        <v>0.9176509239345539</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9112071798916348</v>
+        <v>0.9132569562050777</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8707550492668569</v>
+        <v>0.8698386290830011</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8877350458261954</v>
+        <v>0.8884801894280966</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.8989093484985518</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8847677221489939</v>
+        <v>0.884767722148994</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.8752544630811504</v>
@@ -1100,7 +1100,7 @@
         <v>0.8679880945367946</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8581654364660336</v>
+        <v>0.8581654364660335</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8422588562297939</v>
+        <v>0.8403007477673495</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8213457498800981</v>
+        <v>0.8225642913664071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8143042009212736</v>
+        <v>0.8135044488312814</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8850867182500186</v>
+        <v>0.8858924451050543</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8875752739272345</v>
+        <v>0.887769061073282</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8726670367890353</v>
+        <v>0.8739711578522597</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8661878409215155</v>
+        <v>0.8670612028920841</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8588677947986101</v>
+        <v>0.8590611924539728</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8469240140521729</v>
+        <v>0.8481054971422278</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8653654723068184</v>
+        <v>0.865888505696306</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8480082946061522</v>
+        <v>0.847802796052251</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8451703437856585</v>
+        <v>0.8460090221516035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9060189708182567</v>
+        <v>0.9065204144929303</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9088351764902906</v>
+        <v>0.9083079969249248</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.89536301786019</v>
+        <v>0.8958720939852869</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.882552102272641</v>
+        <v>0.8828635795084508</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8753440553417249</v>
+        <v>0.8755780522062589</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.867337713741146</v>
+        <v>0.8671171293191849</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>830139</v>
+        <v>826495</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>878160</v>
+        <v>876713</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>325773</v>
+        <v>326332</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>949545</v>
+        <v>951314</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1113846</v>
+        <v>1115273</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>520463</v>
+        <v>520364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1791672</v>
+        <v>1794268</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2001465</v>
+        <v>2005330</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>862354</v>
+        <v>860634</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>883057</v>
+        <v>876674</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>929623</v>
+        <v>928931</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>374756</v>
+        <v>375821</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>995576</v>
+        <v>996086</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1154642</v>
+        <v>1155212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>556621</v>
+        <v>555917</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1860001</v>
+        <v>1863106</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2074185</v>
+        <v>2072705</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>922561</v>
+        <v>924403</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>791550</v>
+        <v>794775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>733061</v>
+        <v>735289</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>781299</v>
+        <v>776689</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>962348</v>
+        <v>960472</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>874893</v>
+        <v>877353</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>962454</v>
+        <v>960077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1769778</v>
+        <v>1766814</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1621649</v>
+        <v>1621815</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1754054</v>
+        <v>1752275</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>838950</v>
+        <v>842401</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>778311</v>
+        <v>778128</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>834593</v>
+        <v>833102</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1001868</v>
+        <v>1001908</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>914557</v>
+        <v>916614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1009110</v>
+        <v>1007089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1828763</v>
+        <v>1830304</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1680980</v>
+        <v>1680056</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1829238</v>
+        <v>1831062</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>755930</v>
+        <v>758338</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>696010</v>
+        <v>692647</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>870757</v>
+        <v>872469</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>778353</v>
+        <v>777791</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>689864</v>
+        <v>691034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>905904</v>
+        <v>903269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1545443</v>
+        <v>1546016</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1394924</v>
+        <v>1397333</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1792203</v>
+        <v>1793212</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>794545</v>
+        <v>793999</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>732384</v>
+        <v>732229</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>925395</v>
+        <v>927145</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>811865</v>
+        <v>812830</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>720515</v>
+        <v>719586</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>946600</v>
+        <v>946369</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1596917</v>
+        <v>1597722</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1444862</v>
+        <v>1445014</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1860343</v>
+        <v>1860920</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>423490</v>
+        <v>424540</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>397721</v>
+        <v>396862</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>800142</v>
+        <v>799876</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>396705</v>
+        <v>397273</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>406672</v>
+        <v>404775</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>795274</v>
+        <v>792889</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>827500</v>
+        <v>830216</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>816096</v>
+        <v>815192</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1605108</v>
+        <v>1608278</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>452234</v>
+        <v>453527</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>433654</v>
+        <v>432275</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>854618</v>
+        <v>854679</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>420781</v>
+        <v>421766</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>436918</v>
+        <v>435599</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>832042</v>
+        <v>833457</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>865722</v>
+        <v>867670</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>862553</v>
+        <v>861646</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1672653</v>
+        <v>1674057</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2851673</v>
+        <v>2845043</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2745466</v>
+        <v>2749539</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2834824</v>
+        <v>2832040</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3123602</v>
+        <v>3126446</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3121510</v>
+        <v>3122191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3224786</v>
+        <v>3229605</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5989595</v>
+        <v>5995635</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5891437</v>
+        <v>5892764</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6078040</v>
+        <v>6086519</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2929906</v>
+        <v>2931677</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2834589</v>
+        <v>2833902</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2942278</v>
+        <v>2945198</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3197475</v>
+        <v>3199245</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3196279</v>
+        <v>3194425</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3308655</v>
+        <v>3310536</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6102752</v>
+        <v>6104906</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6004457</v>
+        <v>6006062</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6224541</v>
+        <v>6222958</v>
       </c>
     </row>
     <row r="24">
